--- a/Links.xlsx
+++ b/Links.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0250CA-6335-4F37-A987-E2886C647828}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B44D20-F998-49CD-9BF7-6DD181F4B4AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="0" windowWidth="22290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAA55E9-192F-4765-AAAE-A2F495C5373C}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B44D20-F998-49CD-9BF7-6DD181F4B4AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="22290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="800" windowWidth="22300" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
     <sheet name="basic" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>https://zhuanlan.zhihu.com/p/21673805</t>
-  </si>
-  <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,11 +59,15 @@
     <t>https://github.com/CyC2018/CS-Notes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/21673805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,58 +396,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAA55E9-192F-4765-AAAE-A2F495C5373C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{3140B820-4AB3-4943-8A22-89AE1778CF65}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{6BF08999-C3AC-4E0C-B37C-331DE4817D6B}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
@@ -444,25 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A767D045-E566-4759-A910-A3C980CBAADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="800" windowWidth="22300" windowHeight="15600" activeTab="1"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="0" windowWidth="22290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
     <sheet name="basic" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,16 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -446,8 +446,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
@@ -455,30 +455,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{53B79DA4-B0A3-4E84-BC6A-571B63683493}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Links.xlsx
+++ b/Links.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A767D045-E566-4759-A910-A3C980CBAADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424424B5-5F03-459D-BE18-44F08D03F3F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="0" windowWidth="22290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1905" windowWidth="17805" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
     <sheet name="basic" sheetId="1" r:id="rId2"/>
+    <sheet name="spring" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,36 +34,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/it-interview/EasyJob</t>
+  </si>
+  <si>
+    <t>https://github.com/crazyweeds/JVM</t>
+  </si>
+  <si>
+    <t>https://github.com/crossoverJie/JCSprout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/CyC2018/CS-Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/21673805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/doocs/advanced-java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/xingshaocheng/architect-awesome</t>
-  </si>
-  <si>
-    <t>https://github.com/it-interview/EasyJob</t>
-  </si>
-  <si>
-    <t>https://github.com/crazyweeds/JVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Snailclimb/JavaGuide</t>
-  </si>
-  <si>
-    <t>https://github.com/crossoverJie/JCSprout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/CyC2018/CS-Notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/21673805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOC/AOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tianxiaobo.com/2018/01/18/%E8%87%AA%E5%B7%B1%E5%8A%A8%E6%89%8B%E5%AE%9E%E7%8E%B0%E7%9A%84-Spring-IOC-%E5%92%8C-AOP-%E4%B8%8A%E7%AF%87/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己动手实现的 Spring IOC 和 AOP - 上篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己动手实现的 Spring IOC 和 AOP - 下篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Snailclimb/JavaGuide/blob/master/%E4%B8%BB%E6%B5%81%E6%A1%86%E6%9E%B6/Spring%E5%AD%A6%E4%B9%A0%E4%B8%8E%E9%9D%A2%E8%AF%95.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试必备知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tianxiaobo.com/2018/01/18/%E8%87%AA%E5%B7%B1%E5%8A%A8%E6%89%8B%E5%AE%9E%E7%8E%B0%E7%9A%84-Spring-IOC-%E5%92%8C-AOP-%E4%B8%8B%E7%AF%87/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring IOC 容器源码分析系列文章导读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tianxiaobo.com/2018/05/30/Spring-IOC-%E5%AE%B9%E5%99%A8%E6%BA%90%E7%A0%81%E5%88%86%E6%9E%90%E7%B3%BB%E5%88%97%E6%96%87%E7%AB%A0%E5%AF%BC%E8%AF%BB/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,48 +439,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>20190313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -448,9 +494,12 @@
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{1778F6B1-C114-488A-87F7-D094792332D4}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{2CA76CEE-2951-4283-8C71-911AAB1F7FD8}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{791AC70E-C2DF-4207-A43C-73D67AC91F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -473,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -484,4 +533,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FF10D-0573-4D60-B4CC-33A79AE19DAA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{66009996-94C2-4703-BCBE-1B51DF009B98}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{B10264C9-F682-4038-A6D4-383B78119E54}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{BBF3CA2F-C3A6-47BB-A521-4BC349242744}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{38F481A4-F557-415E-8F53-0C6B765D6A69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Links.xlsx
+++ b/Links.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424424B5-5F03-459D-BE18-44F08D03F3F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB3C9D-9EC9-4089-82ED-85C3FE09FD8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1905" windowWidth="17805" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1905" windowWidth="17805" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>http://www.tianxiaobo.com/2018/05/30/Spring-IOC-%E5%AE%B9%E5%99%A8%E6%BA%90%E7%A0%81%E5%88%86%E6%9E%90%E7%B3%BB%E5%88%97%E6%96%87%E7%AB%A0%E5%AF%BC%E8%AF%BB/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ongoing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,6 +486,9 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FF10D-0573-4D60-B4CC-33A79AE19DAA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB3C9D-9EC9-4089-82ED-85C3FE09FD8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF6B87-C1F8-479A-8080-BEA0CBB52ACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1905" windowWidth="17805" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FF10D-0573-4D60-B4CC-33A79AE19DAA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF6B87-C1F8-479A-8080-BEA0CBB52ACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="1400" windowWidth="27800" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
     <sheet name="basic" sheetId="1" r:id="rId2"/>
     <sheet name="spring" sheetId="3" r:id="rId3"/>
+    <sheet name="springmvc" sheetId="5" r:id="rId4"/>
+    <sheet name="springboot" sheetId="6" r:id="rId5"/>
+    <sheet name="blogs" sheetId="4" r:id="rId6"/>
+    <sheet name="experience" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,15 +37,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,12 +117,84 @@
     <t>ongoing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.hollischuang.com/</t>
+  </si>
+  <si>
+    <t>http://www.tianxiaobo.com/2018/06/29/Spring-MVC-%E5%8E%9F%E7%90%86%E6%8E%A2%E7%A7%98-%E4%B8%80%E4%B8%AA%E8%AF%B7%E6%B1%82%E7%9A%84%E6%97%85%E8%A1%8C%E8%BF%87%E7%A8%8B/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-MVC-原理探秘-一个请求的旅行过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring MVC 原理探秘 - 容器的创建过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tianxiaobo.com/2018/06/30/Spring-MVC-%E5%8E%9F%E7%90%86%E6%8E%A2%E7%A7%98-%E5%AE%B9%E5%99%A8%E7%9A%84%E5%88%9B%E5%BB%BA%E8%BF%87%E7%A8%8B/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/fangjian0423/springmvc-source-minibook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMVC源码分析迷你书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/fangjian0423/springboot-analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot-analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/28705206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员你为什么这么累？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tianxiaobo.com</t>
+  </si>
+  <si>
+    <t>田小波</t>
+    <rPh sb="0" eb="1">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java成神之路</t>
+    <rPh sb="4" eb="5">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +215,15 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,9 +248,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,16 +532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,11 +589,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{1778F6B1-C114-488A-87F7-D094792332D4}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{2CA76CEE-2951-4283-8C71-911AAB1F7FD8}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{791AC70E-C2DF-4207-A43C-73D67AC91F89}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
@@ -511,17 +601,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,7 +625,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{53B79DA4-B0A3-4E84-BC6A-571B63683493}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -543,17 +633,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FF10D-0573-4D60-B4CC-33A79AE19DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="159.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,11 +687,147 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{66009996-94C2-4703-BCBE-1B51DF009B98}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{B10264C9-F682-4038-A6D4-383B78119E54}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BBF3CA2F-C3A6-47BB-A521-4BC349242744}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{38F481A4-F557-415E-8F53-0C6B765D6A69}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Links.xlsx
+++ b/Links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1400" windowWidth="27800" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="1000" yWindow="1400" windowWidth="27800" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>springboot-analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/28705206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,6 +183,34 @@
     <rPh sb="6" eb="7">
       <t>zhi lu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xwjie.github.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖文杰</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xwjie.github.io/rule/</t>
+  </si>
+  <si>
+    <t>https://xwjie.github.io/note/basic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么才是java的基础知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -770,10 +794,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -784,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -792,10 +816,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -806,10 +838,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,10 +852,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1400" windowWidth="27800" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="1000" yWindow="1400" windowWidth="27800" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>什么才是java的基础知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://objcoding.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,10 +802,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,6 +838,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1400" windowWidth="27800" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="1040" yWindow="1400" windowWidth="27760" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
-    <sheet name="basic" sheetId="1" r:id="rId2"/>
+    <sheet name="java basic" sheetId="1" r:id="rId2"/>
     <sheet name="spring" sheetId="3" r:id="rId3"/>
     <sheet name="springmvc" sheetId="5" r:id="rId4"/>
     <sheet name="springboot" sheetId="6" r:id="rId5"/>
     <sheet name="blogs" sheetId="4" r:id="rId6"/>
-    <sheet name="experience" sheetId="7" r:id="rId7"/>
+    <sheet name="basic" sheetId="8" r:id="rId7"/>
+    <sheet name="experience" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -74,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/Snailclimb/JavaGuide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IOC/AOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +216,10 @@
   </si>
   <si>
     <t>zsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Snailclimb/JavaGuide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" activeCellId="1" sqref="B1:B7 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,10 +608,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -680,40 +681,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -744,26 +745,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +789,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -816,34 +817,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -853,6 +854,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -868,18 +882,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC552B3-9BAE-4EED-A582-94FC2CE8DC2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1400" windowWidth="27760" windowHeight="15840"/>
+    <workbookView xWindow="5700" yWindow="7170" windowWidth="17805" windowHeight="13110" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -26,32 +22,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/it-interview/EasyJob</t>
-  </si>
-  <si>
     <t>https://github.com/crazyweeds/JVM</t>
   </si>
   <si>
@@ -108,10 +95,6 @@
   </si>
   <si>
     <t>http://www.tianxiaobo.com/2018/05/30/Spring-IOC-%E5%AE%B9%E5%99%A8%E6%BA%90%E7%A0%81%E5%88%86%E6%9E%90%E7%B3%BB%E5%88%97%E6%96%87%E7%AB%A0%E5%AF%BC%E8%AF%BB/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ongoing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,11 +205,31 @@
     <t>https://github.com/Snailclimb/JavaGuide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://github.com/it-interview/EasyJob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fangjian0423.github.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cmsblogs.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死磕java系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,22 +568,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="B1:B7 A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>20190313</v>
@@ -588,63 +591,61 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{12B18078-2BC7-4685-B2C6-2BA7BB91B4DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -652,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -666,133 +667,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="159.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4C808F95-A898-4AFE-AA6C-7E6191F80168}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -802,64 +806,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{894106C6-5AED-4BF1-A134-6C222D3CDE84}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{F85A7129-1476-4721-927E-76CD770C3390}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,33 +892,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC552B3-9BAE-4EED-A582-94FC2CE8DC2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="7170" windowWidth="17805" windowHeight="13110" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="4880" windowWidth="17800" windowHeight="13120" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -22,12 +26,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -99,10 +103,6 @@
   </si>
   <si>
     <t>https://www.hollischuang.com/</t>
-  </si>
-  <si>
-    <t>http://www.tianxiaobo.com/2018/06/29/Spring-MVC-%E5%8E%9F%E7%90%86%E6%8E%A2%E7%A7%98-%E4%B8%80%E4%B8%AA%E8%AF%B7%E6%B1%82%E7%9A%84%E6%97%85%E8%A1%8C%E8%BF%87%E7%A8%8B/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spring-MVC-原理探秘-一个请求的旅行过程</t>
@@ -225,11 +225,15 @@
     <t>死磕java系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://www.tianxiaobo.com/2018/06/29/Spring-MVC-%E5%8E%9F%E7%90%86%E6%8E%A2%E7%A7%98-%E4%B8%80%E4%B8%AA%E8%AF%B7%E6%B1%82%E7%9A%84%E6%97%85%E8%A1%8C%E8%BF%87%E7%A8%8B/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,16 +572,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,7 +605,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +615,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -622,12 +626,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{12B18078-2BC7-4685-B2C6-2BA7BB91B4DD}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
@@ -635,17 +639,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +663,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -667,17 +671,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="159.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -721,71 +725,71 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="B1 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4C808F95-A898-4AFE-AA6C-7E6191F80168}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
@@ -793,10 +797,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -806,23 +810,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -830,61 +834,61 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{894106C6-5AED-4BF1-A134-6C222D3CDE84}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{F85A7129-1476-4721-927E-76CD770C3390}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,33 +896,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,43 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8AAC5-91F3-4D1B-89B5-2A6725E3BB1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="4880" windowWidth="17800" windowHeight="13120" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="9360" yWindow="705" windowWidth="17805" windowHeight="13110" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
     <sheet name="java basic" sheetId="1" r:id="rId2"/>
     <sheet name="spring" sheetId="3" r:id="rId3"/>
     <sheet name="springmvc" sheetId="5" r:id="rId4"/>
-    <sheet name="springboot" sheetId="6" r:id="rId5"/>
-    <sheet name="blogs" sheetId="4" r:id="rId6"/>
-    <sheet name="basic" sheetId="8" r:id="rId7"/>
-    <sheet name="experience" sheetId="7" r:id="rId8"/>
+    <sheet name="mybatis" sheetId="9" r:id="rId5"/>
+    <sheet name="springboot" sheetId="6" r:id="rId6"/>
+    <sheet name="blogs" sheetId="4" r:id="rId7"/>
+    <sheet name="basic" sheetId="8" r:id="rId8"/>
+    <sheet name="experience" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,11 +226,18 @@
     <t>http://www.tianxiaobo.com/2018/06/29/Spring-MVC-%E5%8E%9F%E7%90%86%E6%8E%A2%E7%A7%98-%E4%B8%80%E4%B8%AA%E8%AF%B7%E6%B1%82%E7%9A%84%E6%97%85%E8%A1%8C%E8%BF%87%E7%A8%8B/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://www.tianxiaobo.com/categories/java-framework/mybatis/</t>
+  </si>
+  <si>
+    <t>MyBatis 源码分析系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,16 +576,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,12 +630,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
@@ -639,17 +643,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +667,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -671,17 +675,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="159.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,27 +729,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="B1 B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,21 +779,47 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43274138-F482-48C2-A810-EA14B316C8E6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
@@ -809,18 +839,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,37 +905,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8AAC5-91F3-4D1B-89B5-2A6725E3BB1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F026A-2A89-4951-A205-1532FC605681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="705" windowWidth="17805" windowHeight="13110" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="17805" windowHeight="13110" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,14 @@
   </si>
   <si>
     <t>MyBatis 源码分析系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iocoder.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43274138-F482-48C2-A810-EA14B316C8E6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -841,10 +849,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,13 +910,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{75B6F73F-DD4A-4982-B512-A11939865088}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F026A-2A89-4951-A205-1532FC605681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347678FB-E61B-4E35-9A15-F294BA9A853C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="17805" windowHeight="13110" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="17805" windowHeight="13110" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="mybatis" sheetId="9" r:id="rId5"/>
     <sheet name="springboot" sheetId="6" r:id="rId6"/>
     <sheet name="blogs" sheetId="4" r:id="rId7"/>
-    <sheet name="basic" sheetId="8" r:id="rId8"/>
-    <sheet name="experience" sheetId="7" r:id="rId9"/>
+    <sheet name="experience" sheetId="7" r:id="rId8"/>
+    <sheet name="books" sheetId="11" r:id="rId9"/>
+    <sheet name="redis" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +240,44 @@
   </si>
   <si>
     <t>源码分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5c9442ae5188252d77392241?utm_source=gold_browser_extension</t>
+  </si>
+  <si>
+    <t>布隆过滤器-缓存雪崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.fullstackyang.com/bu-long-guo-lu-qi-google-guavalei-ku-yuan-ma-fen-xi-ji-ji-yu-redis-bitmapsde-zhong-gou/</t>
+  </si>
+  <si>
+    <t>guava实现布隆过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.fullstackyang.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap1.8中多线程扩容引起的死循环问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Hzt_fighting_up/article/details/78737468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://legacy.gitbook.com/book/coderxing/architecture-evolution/details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从部落到帝国 - 后端技术栈的演进及开源实践 v 0.51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,18 +689,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E62C140-5236-47BB-BF29-B23E0BC91B51}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -672,13 +748,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E27D695E-FA40-4F50-86EF-7A5A0B1B0E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -849,10 +934,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -918,32 +1003,28 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{75B6F73F-DD4A-4982-B512-A11939865088}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{41993C94-E864-47CA-9B53-9EB8E8608A65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -977,4 +1058,36 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC061C50-DAFA-4E33-9F95-A5376220D6EF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{87CD99A7-3996-4817-A69E-30C741721CFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347678FB-E61B-4E35-9A15-F294BA9A853C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/copywang/IdeaProjects/MyJavaNotes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="17805" windowHeight="13110" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1480" windowWidth="17800" windowHeight="13120" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -15,20 +19,21 @@
     <sheet name="mybatis" sheetId="9" r:id="rId5"/>
     <sheet name="springboot" sheetId="6" r:id="rId6"/>
     <sheet name="blogs" sheetId="4" r:id="rId7"/>
-    <sheet name="experience" sheetId="7" r:id="rId8"/>
-    <sheet name="books" sheetId="11" r:id="rId9"/>
-    <sheet name="redis" sheetId="10" r:id="rId10"/>
+    <sheet name="sql" sheetId="12" r:id="rId8"/>
+    <sheet name="experience" sheetId="7" r:id="rId9"/>
+    <sheet name="books" sheetId="11" r:id="rId10"/>
+    <sheet name="redis" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -261,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HashMap1.8中多线程扩容引起的死循环问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,11 +281,18 @@
     <t>从部落到帝国 - 后端技术栈的演进及开源实践 v 0.51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>全栈-没啥用</t>
+    <rPh sb="3" eb="4">
+      <t>mei sha yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,16 +631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,12 +685,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
@@ -690,17 +698,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E62C140-5236-47BB-BF29-B23E0BC91B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,17 +767,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,17 +790,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E27D695E-FA40-4F50-86EF-7A5A0B1B0E0D}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
@@ -768,17 +808,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="159.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -822,27 +862,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -872,19 +912,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43274138-F482-48C2-A810-EA14B316C8E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -905,14 +945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
@@ -933,17 +973,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1008,16 +1048,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{75B6F73F-DD4A-4982-B512-A11939865088}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{41993C94-E864-47CA-9B53-9EB8E8608A65}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
@@ -1025,16 +1065,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1058,36 +1111,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC061C50-DAFA-4E33-9F95-A5376220D6EF}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{87CD99A7-3996-4817-A69E-30C741721CFB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-</worksheet>
 </file>
--- a/Links.xlsx
+++ b/Links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1480" windowWidth="17800" windowHeight="13120" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="4140" yWindow="2300" windowWidth="17800" windowHeight="13120" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Java 8系列之重新认识HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,12 +288,20 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MySQL 性能优化神器 Explain 使用分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000008131735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +333,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,18 +359,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,7 +673,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,7 +740,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,7 +809,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -812,7 +850,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -876,7 +914,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -922,7 +960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -949,7 +989,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,7 +1017,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1066,13 +1106,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1082,7 +1140,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
